--- a/Numerical_analysis/Lab_2/unsorted_data.xlsx
+++ b/Numerical_analysis/Lab_2/unsorted_data.xlsx
@@ -4,11 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Table_2" sheetId="1" r:id="rId1"/>
     <sheet name="Table_2_my_opt" sheetId="2" r:id="rId2"/>
+    <sheet name="First_regr" sheetId="6" r:id="rId3"/>
+    <sheet name="Second_regr" sheetId="7" r:id="rId4"/>
+    <sheet name="Third_regr" sheetId="9" r:id="rId5"/>
+    <sheet name="Table_2_without_z4" sheetId="5" r:id="rId6"/>
+    <sheet name="Table_2_without_z4_z3" sheetId="8" r:id="rId7"/>
+    <sheet name="Лист8" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="46">
   <si>
     <t>i</t>
   </si>
@@ -60,12 +66,111 @@
   <si>
     <t>N=11</t>
   </si>
+  <si>
+    <t>z1</t>
+  </si>
+  <si>
+    <t>z2</t>
+  </si>
+  <si>
+    <t>z3</t>
+  </si>
+  <si>
+    <t>z4</t>
+  </si>
+  <si>
+    <t>z5</t>
+  </si>
+  <si>
+    <t>z6</t>
+  </si>
+  <si>
+    <t>ВЫВОД ИТОГОВ</t>
+  </si>
+  <si>
+    <t>Регрессионная статистика</t>
+  </si>
+  <si>
+    <t>Множественный R</t>
+  </si>
+  <si>
+    <t>R-квадрат</t>
+  </si>
+  <si>
+    <t>Нормированный R-квадрат</t>
+  </si>
+  <si>
+    <t>Стандартная ошибка</t>
+  </si>
+  <si>
+    <t>Наблюдения</t>
+  </si>
+  <si>
+    <t>Дисперсионный анализ</t>
+  </si>
+  <si>
+    <t>Регрессия</t>
+  </si>
+  <si>
+    <t>Остаток</t>
+  </si>
+  <si>
+    <t>Итого</t>
+  </si>
+  <si>
+    <t>Y-пересечение</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Значимость F</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>t-статистика</t>
+  </si>
+  <si>
+    <t>P-Значение</t>
+  </si>
+  <si>
+    <t>Нижние 95%</t>
+  </si>
+  <si>
+    <t>Верхние 95%</t>
+  </si>
+  <si>
+    <t>ВЫВОД ОСТАТКА</t>
+  </si>
+  <si>
+    <t>Наблюдение</t>
+  </si>
+  <si>
+    <t>Остатки</t>
+  </si>
+  <si>
+    <t>Y-a</t>
+  </si>
+  <si>
+    <t>Предсказанное Y-a</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,16 +209,44 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -189,11 +322,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -219,11 +385,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="24">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -234,6 +501,1019 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист8!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Предсказанное Y-a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист8!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.52</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист8!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>13.775986148556678</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.402145223778749</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.842105977792928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.598858993057165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.22615268256135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.879001778654366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.387989015186616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5644210957880098</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3690718781619236</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.948706150353356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13.134610504209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.828926048946533</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.507888657594197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.90035866931359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.310954448616306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6697400316348272</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.520251491097794</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.183974189169945</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.020289133206983</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.158567882319705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0CB9-4D81-8D7C-C992B5FD8934}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="499933856"/>
+        <c:axId val="499936808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="499933856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499936808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="499936808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499933856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -249,7 +1529,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -300,9 +1580,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -351,7 +1631,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -402,9 +1682,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -453,7 +1733,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -504,9 +1784,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -555,7 +1835,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -606,9 +1886,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -657,7 +1937,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -708,9 +1988,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -759,7 +2039,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -810,9 +2090,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -861,7 +2141,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -912,9 +2192,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -963,7 +2243,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -1014,9 +2294,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1065,7 +2345,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -1116,9 +2396,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1167,7 +2447,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -1218,9 +2498,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1269,7 +2549,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>1</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -1320,9 +2600,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>11</xdr:col>
-          <xdr:colOff>142875</xdr:colOff>
+          <xdr:colOff>146050</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>142875</xdr:rowOff>
+          <xdr:rowOff>146050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1361,6 +2641,92 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:G21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="23">
+  <autoFilter ref="A1:G21"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Y-a" dataDxfId="15">
+      <calculatedColumnFormula>Таблица1[[#This Row],[Y-a]]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="z1" dataDxfId="21"/>
+    <tableColumn id="3" name="z2" dataDxfId="20"/>
+    <tableColumn id="4" name="z3" dataDxfId="19"/>
+    <tableColumn id="5" name="z4" dataDxfId="18"/>
+    <tableColumn id="6" name="z5" dataDxfId="17"/>
+    <tableColumn id="7" name="z6" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="A1:F21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:F21"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Y-a" dataDxfId="12">
+      <calculatedColumnFormula>Таблица13[[#This Row],[Y-a]]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="z1" dataDxfId="11"/>
+    <tableColumn id="3" name="z2" dataDxfId="10"/>
+    <tableColumn id="4" name="z3" dataDxfId="9"/>
+    <tableColumn id="6" name="z5" dataDxfId="8"/>
+    <tableColumn id="7" name="z6" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица134" displayName="Таблица134" ref="A1:E21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A1:E21"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Y-a" dataDxfId="4">
+      <calculatedColumnFormula>Таблица134[[#This Row],[Y-a]]-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="z1" dataDxfId="3"/>
+    <tableColumn id="3" name="z2" dataDxfId="2"/>
+    <tableColumn id="6" name="z5" dataDxfId="1"/>
+    <tableColumn id="7" name="z6" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1632,9 +2998,9 @@
       <selection activeCell="J4" sqref="J4:J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +3038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1708,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1722,7 +3088,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -1760,7 +3126,7 @@
         <v>13.51</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -1798,7 +3164,7 @@
         <v>12.43</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1836,7 +3202,7 @@
         <v>13.23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>4</v>
       </c>
@@ -1874,7 +3240,7 @@
         <v>16.510000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>5</v>
       </c>
@@ -1912,7 +3278,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>6</v>
       </c>
@@ -1950,7 +3316,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>7</v>
       </c>
@@ -1988,7 +3354,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>8</v>
       </c>
@@ -2026,7 +3392,7 @@
         <v>12.14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>9</v>
       </c>
@@ -2064,7 +3430,7 @@
         <v>10.58</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>10</v>
       </c>
@@ -2102,7 +3468,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>11</v>
       </c>
@@ -2140,7 +3506,7 @@
         <v>13.29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>12</v>
       </c>
@@ -2178,7 +3544,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>13</v>
       </c>
@@ -2216,7 +3582,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>14</v>
       </c>
@@ -2254,7 +3620,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>15</v>
       </c>
@@ -2292,7 +3658,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>16</v>
       </c>
@@ -2330,7 +3696,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -2368,7 +3734,7 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -2406,7 +3772,7 @@
         <v>13.06</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -2444,7 +3810,7 @@
         <v>13.38</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2504,7 +3870,7 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2529,9 +3895,9 @@
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2554,7 +3920,7 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2579,9 +3945,9 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2604,7 +3970,7 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2629,9 +3995,9 @@
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2654,7 +4020,7 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2679,9 +4045,9 @@
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2704,7 +4070,7 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2729,9 +4095,9 @@
               </from>
               <to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2754,7 +4120,7 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2779,9 +4145,9 @@
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2804,7 +4170,7 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2829,9 +4195,9 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2854,7 +4220,7 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2879,9 +4245,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2904,7 +4270,7 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2929,9 +4295,9 @@
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -2954,7 +4320,7 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -2979,9 +4345,9 @@
               </from>
               <to>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3004,7 +4370,7 @@
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -3029,9 +4395,9 @@
               </from>
               <to>
                 <xdr:col>11</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:colOff>146050</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>146050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -3047,115 +4413,3281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>14.77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>13.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>14.88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>15.39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>11.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>14.13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>13.83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>15.31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10.67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>12.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>14.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13.02</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>15.16</v>
+    <row r="1" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.77</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.158574</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.194067</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.7458720000000001</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.566271</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.825556</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1.9425030000000001</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.2388680000000001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.913419</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.182653</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.0446489999999999</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.304209</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.9240390000000001</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.84</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.5640430000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.5613570000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.070589</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.7789539999999999</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.2264470000000001</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.824122</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.737266</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.798975</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.9522390000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.752281</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.247871</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.54796</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.23</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.364544</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.03122</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.3805959999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.6881010000000001</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.9873959999999999</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.0585039999999999</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.88</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.5352950000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.7429730000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.5804009999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.063356</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.9992369999999999</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.425459</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>14.39</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1.7807249999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.306711</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.972594</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.6862699999999999</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.5826290000000001</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.7672349999999999</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>8.56</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.1350439999999999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.1391640000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.686178</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.2200690000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.0345770000000001</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.0197449999999999</v>
+      </c>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.2464980000000001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.1145970000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.079653</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.333415</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.0544450000000001</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.1567430000000001</v>
+      </c>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>10.95</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1.4164559999999999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.3492230000000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.68038</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.0032350000000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1.471908</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1.095523</v>
+      </c>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.611866</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.9729909999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.443953</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.014008</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.91699</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1.182531</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.83</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1.5205850000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.4279919999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.464156</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.0115050000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.108341</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.981536</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>11.51</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.2298960000000001</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.304392</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.8521069999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.7054959999999999</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.7256389999999999</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.21482</v>
+      </c>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.9</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.7268289999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.8667560000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.0749839999999999</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.0988800000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.9831540000000001</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.2569349999999999</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>14.31</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.7727900000000001</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.363353</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.227454</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.076754</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1.656758</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.6752530000000001</v>
+      </c>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>9.67</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.418256</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.072481</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.1234470000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.438917</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.0594809999999999</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.080325</v>
+      </c>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>11.52</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.1197239999999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.9473560000000001</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.3726309999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.635578</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.94058</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.112827</v>
+      </c>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1.7284459999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.802332</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.3650009999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.1847589999999999</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.1196330000000001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1.8800319999999999</v>
+      </c>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.02</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1.1611069999999999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.359294</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.9562059999999999</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.1434059999999999</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1.4914400000000001</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.688437</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>14.16</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1.9635609999999999</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.2718590000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.250008</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.19367</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.466262</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1.624409</v>
+      </c>
+      <c r="H21" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="15.90625" customWidth="1"/>
+    <col min="9" max="9" width="20.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.9999982395569359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.99999647911697098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.99999485409403455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3.8163179851731857E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15">
+        <v>53.774865664321482</v>
+      </c>
+      <c r="D12" s="15">
+        <v>8.9624776107202475</v>
+      </c>
+      <c r="E12" s="15">
+        <v>615373.76284850971</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1.1394176025137889E-34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15">
+        <v>13</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.8933567853143219E-4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.4564282963956323E-5</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16">
+        <v>53.775055000000016</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-1.0079799533946998</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9.4927710244131248E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>-106.18395311573593</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1.7197087562851266E-20</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-1.0284878383788201</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-0.98747206841057955</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2.9986354510757285</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3.6541012104932984E-3</v>
+      </c>
+      <c r="D18" s="15">
+        <v>820.62189259145259</v>
+      </c>
+      <c r="E18" s="15">
+        <v>4.9356617632634449E-32</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2.990741245353036</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3.006529656798421</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="15">
+        <v>6.189067413407497E-3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>3.0881254532434876E-3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.0041502546171044</v>
+      </c>
+      <c r="E19" s="15">
+        <v>6.6345308715526352E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-4.8242202300468901E-4</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1.2860556849819682E-2</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15">
+        <v>-1.028464829870256E-3</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2.9936143112243253E-3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>-0.34355288388825062</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.73667526262553418</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-7.4957753573777399E-3</v>
+      </c>
+      <c r="G20" s="15">
+        <v>5.4388456976372287E-3</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="15">
+        <v>4.6173811098038558E-4</v>
+      </c>
+      <c r="C21" s="15">
+        <v>3.1823171784070266E-3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.14509493714624572</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.88686137342713256</v>
+      </c>
+      <c r="F21" s="15">
+        <v>-6.4132401761732684E-3</v>
+      </c>
+      <c r="G21" s="15">
+        <v>7.3367163981340388E-3</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2.9995638263141613</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2.7488116405789825E-3</v>
+      </c>
+      <c r="D22" s="15">
+        <v>1091.2220328353828</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1.2143870642301872E-33</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2.9936253798033343</v>
+      </c>
+      <c r="G22" s="15">
+        <v>3.0055022728249883</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="16">
+        <v>3.0000852301960577</v>
+      </c>
+      <c r="C23" s="16">
+        <v>2.8240294652447854E-3</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1062.3420425027371</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1.7210337588185092E-33</v>
+      </c>
+      <c r="F23" s="16">
+        <v>2.9939842854544154</v>
+      </c>
+      <c r="G23" s="16">
+        <v>3.0061861749376999</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>1</v>
+      </c>
+      <c r="B30" s="15">
+        <v>13.776025216344713</v>
+      </c>
+      <c r="C30" s="15">
+        <v>-6.0252163447138685E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>2</v>
+      </c>
+      <c r="B31" s="15">
+        <v>12.402380991603696</v>
+      </c>
+      <c r="C31" s="15">
+        <v>7.6190083963041388E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>3</v>
+      </c>
+      <c r="B32" s="15">
+        <v>12.842726051234486</v>
+      </c>
+      <c r="C32" s="15">
+        <v>-2.7260512344859933E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>4</v>
+      </c>
+      <c r="B33" s="15">
+        <v>12.598463369912475</v>
+      </c>
+      <c r="C33" s="15">
+        <v>1.5366300875250261E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>5</v>
+      </c>
+      <c r="B34" s="15">
+        <v>12.226455282457565</v>
+      </c>
+      <c r="C34" s="15">
+        <v>3.5447175424359045E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>6</v>
+      </c>
+      <c r="B35" s="15">
+        <v>13.878800521585397</v>
+      </c>
+      <c r="C35" s="15">
+        <v>1.1994784146036608E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>7</v>
+      </c>
+      <c r="B36" s="15">
+        <v>14.387654674924041</v>
+      </c>
+      <c r="C36" s="15">
+        <v>2.3453250759590816E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>8</v>
+      </c>
+      <c r="B37" s="15">
+        <v>8.5640844217153571</v>
+      </c>
+      <c r="C37" s="15">
+        <v>-4.084421715356612E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>9</v>
+      </c>
+      <c r="B38" s="15">
+        <v>9.3694194267268784</v>
+      </c>
+      <c r="C38" s="15">
+        <v>5.8057327312077689E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>10</v>
+      </c>
+      <c r="B39" s="15">
+        <v>10.948285039402395</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1.7149605976047866E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>11</v>
+      </c>
+      <c r="B40" s="15">
+        <v>13.134440348910887</v>
+      </c>
+      <c r="C40" s="15">
+        <v>-4.4403489108866268E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>12</v>
+      </c>
+      <c r="B41" s="15">
+        <v>12.828815747712236</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1.1842522877643091E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>13</v>
+      </c>
+      <c r="B42" s="15">
+        <v>11.507713289977429</v>
+      </c>
+      <c r="C42" s="15">
+        <v>2.2867100225703041E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
+        <v>14</v>
+      </c>
+      <c r="B43" s="15">
+        <v>13.900615123444771</v>
+      </c>
+      <c r="C43" s="15">
+        <v>-6.1512344477065994E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="15">
+        <v>15</v>
+      </c>
+      <c r="B44" s="15">
+        <v>14.311096804530013</v>
+      </c>
+      <c r="C44" s="15">
+        <v>-1.0968045300128182E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="15">
+        <v>16</v>
+      </c>
+      <c r="B45" s="15">
+        <v>9.6700473597831813</v>
+      </c>
+      <c r="C45" s="15">
+        <v>-4.7359783181377679E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="15">
+        <v>17</v>
+      </c>
+      <c r="B46" s="15">
+        <v>11.520529368507837</v>
+      </c>
+      <c r="C46" s="15">
+        <v>-5.2936850783780187E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="15">
+        <v>18</v>
+      </c>
+      <c r="B47" s="15">
+        <v>13.183964325629628</v>
+      </c>
+      <c r="C47" s="15">
+        <v>-3.9643256296280072E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="15">
+        <v>19</v>
+      </c>
+      <c r="B48" s="15">
+        <v>12.019809865488202</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1.9013451179716867E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="16">
+        <v>20</v>
+      </c>
+      <c r="B49" s="16">
+        <v>14.158672770108838</v>
+      </c>
+      <c r="C49" s="16">
+        <v>1.3272298911619629E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.99999823670602572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.99999647341516074</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.99999521392057544</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3.6804725404350307E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>53.774865357706325</v>
+      </c>
+      <c r="D12" s="15">
+        <v>10.754973071541265</v>
+      </c>
+      <c r="E12" s="15">
+        <v>793966.4727198683</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1.2078822755041336E-37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15">
+        <v>14</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.8964229369254805E-4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.3545878120896289E-5</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16">
+        <v>53.775055000000016</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-1.0073515773687527</v>
+      </c>
+      <c r="C17" s="15">
+        <v>8.1466139777185299E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>-123.65279367893443</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1.1234664744566924E-22</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-1.0248243265797685</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-0.98987882815773687</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2.9986069028255775</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3.5189177047766852E-3</v>
+      </c>
+      <c r="D18" s="15">
+        <v>852.13896839791903</v>
+      </c>
+      <c r="E18" s="15">
+        <v>2.0740664946595731E-34</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2.9910595749764943</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3.0061542306746607</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="15">
+        <v>6.0985869503694086E-3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2.9168477115887833E-3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.0908143151044243</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5.5263770535085896E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <v>-1.5742919212972505E-4</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1.2354603092868541E-2</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="15">
+        <v>-9.5053660977388306E-4</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2.8402095733671071E-3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>-0.33467129281132907</v>
+      </c>
+      <c r="E20" s="15">
+        <v>0.74283427974196725</v>
+      </c>
+      <c r="F20" s="15">
+        <v>-7.0421802936283607E-3</v>
+      </c>
+      <c r="G20" s="15">
+        <v>5.1411070740805939E-3</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="15">
+        <v>2.9995979483708943</v>
+      </c>
+      <c r="C21" s="15">
+        <v>2.641245528065717E-3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>1135.6755426549125</v>
+      </c>
+      <c r="E21" s="15">
+        <v>3.7190569543260963E-36</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2.9939330401227764</v>
+      </c>
+      <c r="G21" s="15">
+        <v>3.0052628566190123</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16">
+        <v>3.000082500513265</v>
+      </c>
+      <c r="C22" s="16">
+        <v>2.7234450335553119E-3</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1101.5762989704322</v>
+      </c>
+      <c r="E22" s="16">
+        <v>5.6988410321300044E-36</v>
+      </c>
+      <c r="F22" s="16">
+        <v>2.9942412918600199</v>
+      </c>
+      <c r="G22" s="16">
+        <v>3.0059237091665101</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" s="15">
+        <v>13.775982312368271</v>
+      </c>
+      <c r="C29" s="15">
+        <v>-5.982312368271181E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>2</v>
+      </c>
+      <c r="B30" s="15">
+        <v>12.402449931143693</v>
+      </c>
+      <c r="C30" s="15">
+        <v>7.5500688563074903E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>3</v>
+      </c>
+      <c r="B31" s="15">
+        <v>12.842467392120716</v>
+      </c>
+      <c r="C31" s="15">
+        <v>-2.4673921207156724E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>4</v>
+      </c>
+      <c r="B32" s="15">
+        <v>12.598260772019991</v>
+      </c>
+      <c r="C32" s="15">
+        <v>1.7392279800088062E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>5</v>
+      </c>
+      <c r="B33" s="15">
+        <v>12.226344449357939</v>
+      </c>
+      <c r="C33" s="15">
+        <v>3.655550642061911E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>6</v>
+      </c>
+      <c r="B34" s="15">
+        <v>13.878923855495184</v>
+      </c>
+      <c r="C34" s="15">
+        <v>1.076144504816412E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>7</v>
+      </c>
+      <c r="B35" s="15">
+        <v>14.387538266731447</v>
+      </c>
+      <c r="C35" s="15">
+        <v>2.4617332685537008E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>8</v>
+      </c>
+      <c r="B36" s="15">
+        <v>8.5641778889447515</v>
+      </c>
+      <c r="C36" s="15">
+        <v>-4.1778889447510181E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>9</v>
+      </c>
+      <c r="B37" s="15">
+        <v>9.3694126373674571</v>
+      </c>
+      <c r="C37" s="15">
+        <v>5.8736263254210996E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>10</v>
+      </c>
+      <c r="B38" s="15">
+        <v>10.948465851053058</v>
+      </c>
+      <c r="C38" s="15">
+        <v>1.5341489469413716E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>11</v>
+      </c>
+      <c r="B39" s="15">
+        <v>13.134550694099575</v>
+      </c>
+      <c r="C39" s="15">
+        <v>-4.550694099574315E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>12</v>
+      </c>
+      <c r="B40" s="15">
+        <v>12.828950966892688</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1.0490331073125247E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>13</v>
+      </c>
+      <c r="B41" s="15">
+        <v>11.507600937811787</v>
+      </c>
+      <c r="C41" s="15">
+        <v>2.3990621882123975E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>14</v>
+      </c>
+      <c r="B42" s="15">
+        <v>13.900665911651013</v>
+      </c>
+      <c r="C42" s="15">
+        <v>-6.6591165101215211E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
+        <v>15</v>
+      </c>
+      <c r="B43" s="15">
+        <v>14.311201647721552</v>
+      </c>
+      <c r="C43" s="15">
+        <v>-1.201647721551069E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="15">
+        <v>16</v>
+      </c>
+      <c r="B44" s="15">
+        <v>9.6699945566384535</v>
+      </c>
+      <c r="C44" s="15">
+        <v>5.4433615463977958E-6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="15">
+        <v>17</v>
+      </c>
+      <c r="B45" s="15">
+        <v>11.520364517611092</v>
+      </c>
+      <c r="C45" s="15">
+        <v>-3.6451761109290715E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="15">
+        <v>18</v>
+      </c>
+      <c r="B46" s="15">
+        <v>13.183972677718366</v>
+      </c>
+      <c r="C46" s="15">
+        <v>-3.9726777183659578E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="15">
+        <v>19</v>
+      </c>
+      <c r="B47" s="15">
+        <v>12.019952876018603</v>
+      </c>
+      <c r="C47" s="15">
+        <v>4.7123981396168801E-5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="16">
+        <v>20</v>
+      </c>
+      <c r="B48" s="16">
+        <v>14.158721857234399</v>
+      </c>
+      <c r="C48" s="16">
+        <v>1.2781427656012312E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="15.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="15">
+        <v>0.99999822259904758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="15">
+        <v>0.9999964452012543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0.99999549725492209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3.5698692606111085E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15">
+        <v>4</v>
+      </c>
+      <c r="C12" s="15">
+        <v>53.774863840501951</v>
+      </c>
+      <c r="D12" s="15">
+        <v>13.443715960125488</v>
+      </c>
+      <c r="E12" s="15">
+        <v>1054908.2909305177</v>
+      </c>
+      <c r="F12" s="15">
+        <v>1.1495561798863824E-40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="15">
+        <v>15</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1.9115949806784152E-4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1.2743966537856102E-5</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="16">
+        <v>19</v>
+      </c>
+      <c r="C14" s="16">
+        <v>53.775055000000016</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15">
+        <v>-1.0087689797111778</v>
+      </c>
+      <c r="C17" s="15">
+        <v>6.7500575684754207E-3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>-149.44598167908961</v>
+      </c>
+      <c r="E17" s="15">
+        <v>3.2212475517522006E-25</v>
+      </c>
+      <c r="F17" s="15">
+        <v>-1.0231563868480071</v>
+      </c>
+      <c r="G17" s="15">
+        <v>-0.99438157257434856</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15">
+        <v>2.9988292924440052</v>
+      </c>
+      <c r="C18" s="15">
+        <v>3.3517611927236473E-3</v>
+      </c>
+      <c r="D18" s="15">
+        <v>894.70255188650572</v>
+      </c>
+      <c r="E18" s="15">
+        <v>7.1139102537212426E-37</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2.9916851825729496</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3.0059734023150608</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="15">
+        <v>6.2537651486397998E-3</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2.793217524836006E-3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>2.2389108950642744</v>
+      </c>
+      <c r="E19" s="15">
+        <v>4.0746185576004616E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <v>3.0016292467849748E-4</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1.2207367372601103E-2</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2.9994176742080469</v>
+      </c>
+      <c r="C20" s="15">
+        <v>2.5080296167029376E-3</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1195.9259389253502</v>
+      </c>
+      <c r="E20" s="15">
+        <v>9.156922363894503E-39</v>
+      </c>
+      <c r="F20" s="15">
+        <v>2.994071935621275</v>
+      </c>
+      <c r="G20" s="15">
+        <v>3.0047634127948188</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16">
+        <v>2.9999012271062377</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2.5888312662147757E-3</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1158.7859225342647</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1.4698180063057764E-38</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2.9943832638803332</v>
+      </c>
+      <c r="G21" s="16">
+        <v>3.0054191903321423</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>1</v>
+      </c>
+      <c r="B28" s="15">
+        <v>13.775986148556678</v>
+      </c>
+      <c r="C28" s="15">
+        <v>-5.986148556678117E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>2</v>
+      </c>
+      <c r="B29" s="15">
+        <v>12.402145223778749</v>
+      </c>
+      <c r="C29" s="15">
+        <v>7.8547762212508587E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>3</v>
+      </c>
+      <c r="B30" s="15">
+        <v>12.842105977792928</v>
+      </c>
+      <c r="C30" s="15">
+        <v>-2.1059777929277601E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
+        <v>4</v>
+      </c>
+      <c r="B31" s="15">
+        <v>12.598858993057165</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1.1410069428343661E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
+        <v>5</v>
+      </c>
+      <c r="B32" s="15">
+        <v>12.22615268256135</v>
+      </c>
+      <c r="C32" s="15">
+        <v>3.8473174386499664E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
+        <v>6</v>
+      </c>
+      <c r="B33" s="15">
+        <v>13.879001778654366</v>
+      </c>
+      <c r="C33" s="15">
+        <v>9.982213456343203E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="15">
+        <v>7</v>
+      </c>
+      <c r="B34" s="15">
+        <v>14.387989015186616</v>
+      </c>
+      <c r="C34" s="15">
+        <v>2.0109848133849084E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
+        <v>8</v>
+      </c>
+      <c r="B35" s="15">
+        <v>8.5644210957880098</v>
+      </c>
+      <c r="C35" s="15">
+        <v>-4.4210957880093105E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
+        <v>9</v>
+      </c>
+      <c r="B36" s="15">
+        <v>9.3690718781619236</v>
+      </c>
+      <c r="C36" s="15">
+        <v>9.2812183807566839E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <v>10</v>
+      </c>
+      <c r="B37" s="15">
+        <v>10.948706150353356</v>
+      </c>
+      <c r="C37" s="15">
+        <v>1.2938496466432525E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="15">
+        <v>11</v>
+      </c>
+      <c r="B38" s="15">
+        <v>13.134610504209</v>
+      </c>
+      <c r="C38" s="15">
+        <v>-4.6105042089994441E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="15">
+        <v>12</v>
+      </c>
+      <c r="B39" s="15">
+        <v>12.828926048946533</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1.0739510534669705E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="15">
+        <v>13</v>
+      </c>
+      <c r="B40" s="15">
+        <v>11.507888657594197</v>
+      </c>
+      <c r="C40" s="15">
+        <v>2.1113424058025743E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="15">
+        <v>14</v>
+      </c>
+      <c r="B41" s="15">
+        <v>13.90035866931359</v>
+      </c>
+      <c r="C41" s="15">
+        <v>-3.5866931358974341E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="15">
+        <v>15</v>
+      </c>
+      <c r="B42" s="15">
+        <v>14.310954448616306</v>
+      </c>
+      <c r="C42" s="15">
+        <v>-9.5444861630511468E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="15">
+        <v>16</v>
+      </c>
+      <c r="B43" s="15">
+        <v>9.6697400316348272</v>
+      </c>
+      <c r="C43" s="15">
+        <v>2.599683651727247E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="15">
+        <v>17</v>
+      </c>
+      <c r="B44" s="15">
+        <v>11.520251491097794</v>
+      </c>
+      <c r="C44" s="15">
+        <v>-2.5149109779398771E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="15">
+        <v>18</v>
+      </c>
+      <c r="B45" s="15">
+        <v>13.183974189169945</v>
+      </c>
+      <c r="C45" s="15">
+        <v>-3.9741891699449639E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="15">
+        <v>19</v>
+      </c>
+      <c r="B46" s="15">
+        <v>12.020289133206983</v>
+      </c>
+      <c r="C46" s="15">
+        <v>-2.8913320698364942E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="16">
+        <v>20</v>
+      </c>
+      <c r="B47" s="16">
+        <v>14.158567882319705</v>
+      </c>
+      <c r="C47" s="16">
+        <v>1.4321176802951641E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>13.77</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.158574</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.194067</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.7458720000000001</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.825556</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1.9425030000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>12.41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.2388680000000001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.913419</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.182653</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.304209</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.9240390000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>12.84</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.5640430000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.5613570000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.070589</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.2264470000000001</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.824122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>12.6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.737266</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.798975</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.9522390000000001</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.247871</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.54796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>12.23</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.364544</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.03122</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.3805959999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.9873959999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.0585039999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>13.88</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.5352950000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.7429730000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.5804009999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.9992369999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.425459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>14.39</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1.7807249999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.306711</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.972594</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.5826290000000001</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1.7672349999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>8.56</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.1350439999999999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.1391640000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.686178</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.0345770000000001</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.0197449999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.2464980000000001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.1145970000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.079653</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.0544450000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.1567430000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>10.95</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1.4164559999999999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.3492230000000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.68038</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.471908</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1.095523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>13.13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.611866</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.9729909999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.443953</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.91699</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1.182531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>12.83</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1.5205850000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.4279919999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.464156</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.108341</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1.981536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>11.51</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.2298960000000001</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.304392</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.8521069999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.7256389999999999</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1.21482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>13.9</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.7268289999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.8667560000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.0749839999999999</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.9831540000000001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1.2569349999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>14.31</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.7727900000000001</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.363353</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.227454</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.656758</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1.6752530000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>9.67</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.418256</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.072481</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.1234470000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.0594809999999999</v>
+      </c>
+      <c r="F17" s="9">
+        <v>1.080325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>11.52</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.1197239999999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.9473560000000001</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.3726309999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.94058</v>
+      </c>
+      <c r="F18" s="9">
+        <v>1.112827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>13.18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1.7284459999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.802332</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.3650009999999999</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.1196330000000001</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1.8800319999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>12.02</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1.1611069999999999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.359294</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.9562059999999999</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.4914400000000001</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1.688437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <f ca="1">Таблица13[[#This Row],[Y-a]]-1</f>
+        <v>14.16</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1.9635609999999999</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.2718590000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.250008</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.466262</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1.624409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>13.77</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1.158574</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.194067</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.825556</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.9425030000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>12.41</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1.2388680000000001</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.913419</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1.304209</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1.9240390000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>12.84</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1.5640430000000001</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.5613570000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.2264470000000001</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.824122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>12.6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.737266</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1.798975</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1.247871</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.54796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>12.23</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1.364544</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.03122</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1.9873959999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.0585039999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>13.88</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1.5352950000000001</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.7429730000000001</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.9992369999999999</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.425459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>14.39</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1.7807249999999999</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.306711</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1.5826290000000001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1.7672349999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>8.56</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1.1350439999999999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.1391640000000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1.0345770000000001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1.0197449999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1.2464980000000001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1.1145970000000001</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1.0544450000000001</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1.1567430000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>10.95</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1.4164559999999999</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1.3492230000000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1.471908</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1.095523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>13.13</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.611866</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.9729909999999999</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1.91699</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1.182531</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>12.83</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1.5205850000000001</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1.4279919999999999</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1.108341</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1.981536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>11.51</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1.2298960000000001</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1.304392</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1.7256389999999999</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1.21482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>13.9</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1.7268289999999999</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1.8667560000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.9831540000000001</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.2569349999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>14.31</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1.7727900000000001</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1.363353</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.656758</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1.6752530000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>9.67</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1.418256</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.072481</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.0594809999999999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1.080325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>11.52</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1.1197239999999999</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1.9473560000000001</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1.94058</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.112827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>13.18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1.7284459999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1.802332</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1.1196330000000001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1.8800319999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>12.02</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1.1611069999999999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>1.359294</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1.4914400000000001</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.688437</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="9">
+        <f ca="1">Таблица134[[#This Row],[Y-a]]-1</f>
+        <v>14.16</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1.9635609999999999</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1.2718590000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.466262</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1.624409</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.77</v>
+      </c>
+      <c r="C2" s="15">
+        <v>13.775986148556678</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.41</v>
+      </c>
+      <c r="C3" s="15">
+        <v>12.402145223778749</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.84</v>
+      </c>
+      <c r="C4" s="15">
+        <v>12.842105977792928</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.6</v>
+      </c>
+      <c r="C5" s="15">
+        <v>12.598858993057165</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.23</v>
+      </c>
+      <c r="C6" s="15">
+        <v>12.22615268256135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.88</v>
+      </c>
+      <c r="C7" s="15">
+        <v>13.879001778654366</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>14.39</v>
+      </c>
+      <c r="C8" s="15">
+        <v>14.387989015186616</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>8.56</v>
+      </c>
+      <c r="C9" s="15">
+        <v>8.5644210957880098</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>9.3699999999999992</v>
+      </c>
+      <c r="C10" s="15">
+        <v>9.3690718781619236</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>10.95</v>
+      </c>
+      <c r="C11" s="15">
+        <v>10.948706150353356</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.13</v>
+      </c>
+      <c r="C12" s="15">
+        <v>13.134610504209</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.83</v>
+      </c>
+      <c r="C13" s="15">
+        <v>12.828926048946533</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>11.51</v>
+      </c>
+      <c r="C14" s="15">
+        <v>11.507888657594197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.9</v>
+      </c>
+      <c r="C15" s="15">
+        <v>13.90035866931359</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>14.31</v>
+      </c>
+      <c r="C16" s="15">
+        <v>14.310954448616306</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>9.67</v>
+      </c>
+      <c r="C17" s="15">
+        <v>9.6697400316348272</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>11.52</v>
+      </c>
+      <c r="C18" s="15">
+        <v>11.520251491097794</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>13.18</v>
+      </c>
+      <c r="C19" s="15">
+        <v>13.183974189169945</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="13">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>12.02</v>
+      </c>
+      <c r="C20" s="15">
+        <v>12.020289133206983</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="14">
+        <f ca="1">Таблица1[[#This Row],[Y-a]]-1</f>
+        <v>14.16</v>
+      </c>
+      <c r="C21" s="16">
+        <v>14.158567882319705</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>